--- a/프론트 화면목록-1.xlsx
+++ b/프론트 화면목록-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunasun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev-2022\dev-mmpx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B53B91-650D-487D-8A72-4E2CB4A04803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="17625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,13 +260,20 @@
   </si>
   <si>
     <t>개인정보수집동의약관0 (전체버전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹은 이후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -711,7 +722,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -729,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -742,8 +753,11 @@
         <v>2</v>
       </c>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
@@ -754,8 +768,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
@@ -766,8 +783,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
@@ -778,8 +798,11 @@
         <v>3</v>
       </c>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
@@ -792,8 +815,14 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
@@ -808,8 +837,14 @@
       <c r="F7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -822,8 +857,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
@@ -836,8 +874,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="10">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
@@ -848,8 +889,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
@@ -860,8 +904,11 @@
         <v>2</v>
       </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="10">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
@@ -874,8 +921,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7" t="s">
@@ -888,8 +938,11 @@
         <v>2</v>
       </c>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="10">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
@@ -900,8 +953,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="10">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7" t="s">
@@ -912,8 +968,11 @@
         <v>3</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="10">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
@@ -926,8 +985,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="10">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -940,8 +1002,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3" t="s">
@@ -954,8 +1019,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
@@ -968,8 +1036,11 @@
         <v>2</v>
       </c>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="10">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3" t="s">
@@ -980,8 +1051,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
@@ -996,8 +1070,14 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -1010,8 +1090,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -1024,8 +1107,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
@@ -1040,8 +1126,14 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G24" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
@@ -1056,8 +1148,14 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G25" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
@@ -1072,8 +1170,14 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G26" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
@@ -1088,8 +1192,14 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G27" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
@@ -1104,8 +1214,14 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3" t="s">
@@ -1120,8 +1236,14 @@
       <c r="F29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G29" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
@@ -1136,8 +1258,14 @@
       <c r="F30" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G30" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
@@ -1152,8 +1280,14 @@
       <c r="F31" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="10">
+        <v>44911</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -1166,8 +1300,11 @@
         <v>1</v>
       </c>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G32" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3" t="s">
@@ -1182,8 +1319,14 @@
       <c r="F33" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="10">
+        <v>44902</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -1196,8 +1339,11 @@
         <v>1</v>
       </c>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="G34" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
@@ -1212,8 +1358,14 @@
       <c r="F35" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="10">
+        <v>44902</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
@@ -1224,8 +1376,11 @@
         <v>2</v>
       </c>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="10">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3" t="s">
@@ -1238,8 +1393,11 @@
         <v>2</v>
       </c>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="10">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="3" t="s">
@@ -1250,8 +1408,11 @@
         <v>2</v>
       </c>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="10">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>8</v>
       </c>
@@ -1264,8 +1425,11 @@
         <v>1</v>
       </c>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>9</v>
       </c>
@@ -1278,8 +1442,11 @@
         <v>1</v>
       </c>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="10">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>10</v>
       </c>
@@ -1292,8 +1459,11 @@
         <v>2</v>
       </c>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="10">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>11</v>
       </c>
@@ -1306,8 +1476,11 @@
         <v>2</v>
       </c>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="10">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>12</v>
       </c>
@@ -1320,8 +1493,11 @@
         <v>2</v>
       </c>
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="10">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>13</v>
       </c>
@@ -1336,8 +1512,11 @@
         <v>2</v>
       </c>
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="10">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>14</v>
       </c>
@@ -1350,8 +1529,11 @@
         <v>3</v>
       </c>
       <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>15</v>
       </c>
@@ -1364,8 +1546,11 @@
         <v>3</v>
       </c>
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>16</v>
       </c>
@@ -1378,8 +1563,11 @@
         <v>3</v>
       </c>
       <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>17</v>
       </c>
@@ -1392,8 +1580,11 @@
         <v>3</v>
       </c>
       <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>18</v>
       </c>
@@ -1406,8 +1597,11 @@
         <v>3</v>
       </c>
       <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="10">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>19</v>
       </c>
@@ -1420,6 +1614,9 @@
         <v>3</v>
       </c>
       <c r="F50" s="3"/>
+      <c r="G50" s="10">
+        <v>44898</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
